--- a/student.xlsx
+++ b/student.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C52DB-AFBF-4C0B-AC62-1C051F048239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E0655B-566D-4D24-B3A3-283E5691C56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>code</t>
   </si>
@@ -69,13 +80,10 @@
     <t>bb</t>
   </si>
   <si>
-    <t>bvc@gmail.com</t>
-  </si>
-  <si>
     <t>gv1.jpg</t>
   </si>
   <si>
-    <t>2004-11-05</t>
+    <t>phamthoiai@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -129,7 +137,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,7 +423,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +468,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>342345678</v>
+        <v>291200809</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -468,8 +476,8 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+      <c r="D2" s="2">
+        <v>38297</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -478,13 +486,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>987654366</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2">
-        <v>8976567879</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
       <c r="J2">
         <v>1</v>
